--- a/REGULAR/CENRO/PALADAN, VICENTE.xlsx
+++ b/REGULAR/CENRO/PALADAN, VICENTE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="262">
   <si>
     <t>PERIOD</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>3/7,8,17,18,22,29/2022</t>
+  </si>
+  <si>
+    <t>11/9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -1855,9 +1858,9 @@
   <dimension ref="A2:K660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A571" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A604" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K581" sqref="K581"/>
+      <selection pane="bottomLeft" activeCell="E616" sqref="E616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2021,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>126.41200000000009</v>
+        <v>128.16200000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2028,7 +2031,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.875</v>
+        <v>106.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14850,13 +14853,15 @@
         <v>45139</v>
       </c>
       <c r="B613" s="20"/>
-      <c r="C613" s="13"/>
+      <c r="C613" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D613" s="39"/>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
-      <c r="G613" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G613" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
@@ -14868,13 +14873,15 @@
         <v>45170</v>
       </c>
       <c r="B614" s="20"/>
-      <c r="C614" s="13"/>
+      <c r="C614" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D614" s="39"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G614" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
@@ -14886,13 +14893,15 @@
         <v>45200</v>
       </c>
       <c r="B615" s="20"/>
-      <c r="C615" s="13"/>
+      <c r="C615" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D615" s="39"/>
       <c r="E615" s="9"/>
       <c r="F615" s="20"/>
-      <c r="G615" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G615" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H615" s="39"/>
       <c r="I615" s="9"/>
@@ -14903,9 +14912,13 @@
       <c r="A616" s="40">
         <v>45231</v>
       </c>
-      <c r="B616" s="20"/>
+      <c r="B616" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C616" s="13"/>
-      <c r="D616" s="39"/>
+      <c r="D616" s="39">
+        <v>2</v>
+      </c>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
       <c r="G616" s="13" t="str">
@@ -14915,7 +14928,9 @@
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="20"/>
+      <c r="K616" s="20" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
